--- a/BackTest/2019-10-26 BackTest TRX.xlsx
+++ b/BackTest/2019-10-26 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>212738.3696486301</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>18.3</v>
@@ -521,7 +521,7 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>18.2</v>
@@ -562,7 +562,7 @@
         <v>418143.7247486301</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>18.2</v>
@@ -603,10 +603,14 @@
         <v>401067.7747486301</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>18.3</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -636,11 +640,19 @@
         <v>401185.0126486301</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -669,11 +681,19 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -702,10 +722,14 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18.2</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -735,7 +759,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>18.2</v>
@@ -743,7 +767,11 @@
       <c r="J10" t="n">
         <v>18.2</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -772,7 +800,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>18.2</v>
@@ -813,7 +841,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>18.2</v>
@@ -821,11 +849,7 @@
       <c r="J12" t="n">
         <v>18.2</v>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -854,7 +878,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>18.2</v>
@@ -862,7 +886,11 @@
       <c r="J13" t="n">
         <v>18.2</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -891,7 +919,7 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>18.2</v>
@@ -932,7 +960,7 @@
         <v>332282.4478486301</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>18.2</v>
@@ -940,11 +968,7 @@
       <c r="J15" t="n">
         <v>18.2</v>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,15 +997,19 @@
         <v>423294.4478486301</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>18.1</v>
       </c>
       <c r="J16" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,17 +1038,15 @@
         <v>423294.4478486301</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1051,15 +1077,17 @@
         <v>419277.6570486301</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J18" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1090,11 +1118,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1126,8 +1162,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1198,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,11 +1239,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1222,11 +1280,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1258,8 +1324,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1288,11 +1360,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1324,8 +1404,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1357,8 +1443,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1390,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1423,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1456,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1489,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1522,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1555,8 +1677,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1588,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1621,8 +1755,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1654,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1687,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1720,8 +1872,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1753,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1786,8 +1950,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1819,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1852,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1885,8 +2067,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1918,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1951,8 +2145,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1984,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2017,8 +2223,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2050,8 +2262,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2083,8 +2301,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2116,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2149,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2182,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2215,8 +2457,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2248,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2281,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2314,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2347,8 +2613,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2380,8 +2652,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2413,8 +2691,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2446,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2479,8 +2769,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2512,8 +2808,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2545,8 +2847,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2578,8 +2886,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2611,8 +2925,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2644,8 +2964,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2677,8 +3003,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2710,8 +3042,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2743,8 +3081,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2776,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2809,8 +3159,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2842,8 +3198,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2875,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2908,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2941,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2974,8 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3007,8 +3393,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3040,8 +3432,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3073,8 +3471,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3106,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3139,8 +3549,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3172,8 +3588,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3205,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3238,8 +3666,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3271,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3304,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3337,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3370,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3403,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3436,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3469,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3502,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3535,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3568,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3601,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3634,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3667,8 +4173,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3700,8 +4212,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3733,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3766,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3799,8 +4329,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3832,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3865,8 +4407,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3898,8 +4446,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3931,8 +4485,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3964,8 +4524,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3997,8 +4563,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4030,8 +4602,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4063,8 +4641,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4096,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4129,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4162,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4195,8 +4797,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4228,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4261,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4294,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4327,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4360,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4393,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4426,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4459,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4492,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4525,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4558,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4591,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4624,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4657,8 +5343,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4690,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4723,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4756,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4789,8 +5499,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4822,8 +5538,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4855,8 +5577,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4888,8 +5616,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4921,8 +5655,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4954,8 +5694,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4987,8 +5733,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5020,8 +5772,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5053,8 +5811,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5086,8 +5850,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5119,8 +5889,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5152,8 +5928,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5185,8 +5967,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5218,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5251,8 +6045,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5284,8 +6084,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5317,8 +6123,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5350,8 +6162,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5383,8 +6201,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5416,8 +6240,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5449,8 +6279,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5482,8 +6318,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5515,8 +6357,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5548,8 +6396,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5581,8 +6435,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5614,8 +6474,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5647,8 +6513,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5680,8 +6552,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5713,8 +6591,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5746,8 +6630,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5779,8 +6669,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5812,8 +6708,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5845,8 +6747,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5878,8 +6786,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5911,8 +6825,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5944,8 +6864,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5977,8 +6903,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6010,8 +6942,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6043,8 +6981,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6076,8 +7020,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6109,8 +7059,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6142,8 +7098,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6175,8 +7137,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6208,8 +7176,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6241,8 +7215,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6274,8 +7254,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6307,8 +7293,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6340,8 +7332,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6373,8 +7371,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6406,8 +7410,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6439,8 +7449,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6472,8 +7488,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6505,8 +7527,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6538,8 +7566,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6571,8 +7605,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6604,8 +7644,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6637,8 +7683,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6670,8 +7722,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6703,8 +7761,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6736,8 +7800,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6769,8 +7839,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6802,8 +7878,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6835,8 +7917,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6868,8 +7956,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6901,8 +7995,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6934,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6967,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7000,8 +8112,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7033,8 +8151,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7066,8 +8190,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7099,8 +8229,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7132,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7165,8 +8307,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7198,8 +8346,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7231,8 +8385,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7264,8 +8424,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7297,8 +8463,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7330,8 +8502,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7363,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7396,8 +8580,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7429,8 +8619,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7462,8 +8658,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7495,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7528,8 +8736,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7561,8 +8775,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7594,8 +8814,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7627,8 +8853,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7660,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7693,8 +8931,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7726,8 +8970,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7759,8 +9009,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7792,8 +9048,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7825,8 +9087,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7855,11 +9123,17 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +9162,17 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H225" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7921,11 +9201,17 @@
         <v>22397498.93918541</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7954,11 +9240,17 @@
         <v>23333836.54088541</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +9279,17 @@
         <v>22468845.70978542</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8020,11 +9318,17 @@
         <v>18738356.94378542</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8053,11 +9357,17 @@
         <v>19680881.63198542</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8086,11 +9396,17 @@
         <v>20746442.87178542</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8122,8 +9438,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8155,8 +9477,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8188,8 +9516,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8221,8 +9555,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8254,8 +9594,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8287,8 +9633,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8320,8 +9672,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +9708,17 @@
         <v>20765487.70848542</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8386,8 +9750,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8419,8 +9789,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8449,11 +9825,17 @@
         <v>20704819.88358542</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8482,11 +9864,17 @@
         <v>20827960.39248542</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8515,11 +9903,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +9942,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8581,11 +9981,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8614,11 +10020,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8647,11 +10059,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8683,8 +10101,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8716,8 +10140,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8746,11 +10176,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8782,8 +10218,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8815,8 +10257,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8848,8 +10296,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8881,8 +10335,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8914,8 +10374,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8947,8 +10413,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8980,8 +10452,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9013,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9046,8 +10530,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9079,8 +10569,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9112,8 +10608,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +10647,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9178,8 +10686,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9211,8 +10725,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9244,8 +10764,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9277,8 +10803,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9310,8 +10842,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9343,8 +10881,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9376,8 +10920,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9409,8 +10959,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9442,8 +10998,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9475,8 +11037,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9508,8 +11076,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9541,8 +11115,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9574,8 +11154,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9607,8 +11193,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9640,8 +11232,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9673,8 +11271,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9706,8 +11310,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9739,8 +11349,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9772,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9805,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9838,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9871,8 +11505,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9904,8 +11544,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9937,8 +11583,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9970,8 +11622,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10003,8 +11661,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10036,8 +11700,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10069,8 +11739,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10102,8 +11778,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10135,8 +11817,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10168,8 +11856,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10201,8 +11895,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10234,8 +11934,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10264,11 +11970,17 @@
         <v>22423859.31128541</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +12012,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10333,8 +12051,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10366,8 +12090,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10399,8 +12129,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10432,8 +12168,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10465,8 +12207,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10498,8 +12246,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10531,8 +12285,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10564,8 +12324,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10597,8 +12363,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10630,8 +12402,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +12438,17 @@
         <v>23476740.20268541</v>
       </c>
       <c r="H309" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10693,11 +12477,17 @@
         <v>23602014.95018541</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10729,8 +12519,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10759,11 +12555,17 @@
         <v>23586314.95018541</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +12594,17 @@
         <v>23586314.95018541</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10825,11 +12633,17 @@
         <v>23586314.95018541</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10861,8 +12675,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10894,8 +12714,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10927,8 +12753,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10960,8 +12792,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -10993,8 +12831,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11026,8 +12870,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11059,8 +12909,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11092,8 +12948,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11125,8 +12987,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11158,8 +13026,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11191,8 +13065,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11224,8 +13104,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11257,8 +13143,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11290,8 +13182,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11323,8 +13221,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11356,8 +13260,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11389,8 +13299,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11422,8 +13338,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11455,8 +13377,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11488,8 +13416,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11521,8 +13455,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11554,8 +13494,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11587,8 +13533,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11620,8 +13572,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11653,8 +13611,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11686,8 +13650,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11719,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11752,8 +13728,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11785,8 +13767,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11818,8 +13806,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11851,8 +13845,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11884,8 +13884,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11917,8 +13923,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11950,8 +13962,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -11983,8 +14001,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12016,8 +14040,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12049,8 +14079,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12082,8 +14118,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12115,8 +14157,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12148,8 +14196,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12181,8 +14235,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12214,8 +14274,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12247,8 +14313,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12280,8 +14352,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12313,8 +14391,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12346,8 +14430,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12379,8 +14469,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12412,8 +14508,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12445,8 +14547,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12478,8 +14586,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12511,8 +14625,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12541,11 +14661,17 @@
         <v>22566913.33588541</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12577,8 +14703,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +14742,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12640,11 +14778,17 @@
         <v>22470923.28288541</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12673,11 +14817,17 @@
         <v>22470923.28288541</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12706,11 +14856,17 @@
         <v>22470923.28288541</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12739,11 +14895,17 @@
         <v>22957215.53818541</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12772,11 +14934,17 @@
         <v>22957215.53818541</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12805,11 +14973,17 @@
         <v>22957215.53818541</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12841,8 +15015,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12871,11 +15051,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12904,11 +15090,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12937,11 +15129,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12970,11 +15168,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13003,11 +15207,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13036,11 +15246,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13069,11 +15285,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13102,11 +15324,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13135,11 +15363,17 @@
         <v>23041078.03818541</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13168,11 +15402,17 @@
         <v>23012347.51048541</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13201,11 +15441,17 @@
         <v>23012347.51048541</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13237,8 +15483,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13267,11 +15519,17 @@
         <v>23408329.23468541</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13303,8 +15561,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13333,15 +15597,23 @@
         <v>22856953.83028541</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
+        <v>1.10489010989011</v>
+      </c>
+      <c r="M390" t="n">
+        <v>1.011049723756906</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -13399,7 +15671,7 @@
         <v>22856953.83028541</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13432,7 +15704,7 @@
         <v>22617428.80398541</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13531,7 +15803,7 @@
         <v>22620117.00918541</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13630,7 +15902,7 @@
         <v>23792177.23448541</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13663,7 +15935,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13696,7 +15968,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13795,7 +16067,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13828,7 +16100,7 @@
         <v>23770627.60648542</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13861,7 +16133,7 @@
         <v>24001509.63988541</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13894,7 +16166,7 @@
         <v>23944329.50458346</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13927,7 +16199,7 @@
         <v>24651836.2294815</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13960,7 +16232,7 @@
         <v>24651836.2294815</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13993,7 +16265,7 @@
         <v>25467510.2185815</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14026,7 +16298,7 @@
         <v>25467510.2185815</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14125,7 +16397,7 @@
         <v>25663062.8348815</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14158,7 +16430,7 @@
         <v>27703057.8466815</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14191,7 +16463,7 @@
         <v>28912615.5342815</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14224,7 +16496,7 @@
         <v>27358192.1646815</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14257,7 +16529,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14290,7 +16562,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14323,7 +16595,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14356,7 +16628,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14389,7 +16661,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14422,7 +16694,7 @@
         <v>26719672.6680815</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14455,7 +16727,7 @@
         <v>26883186.1137815</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14488,7 +16760,7 @@
         <v>26207466.0584815</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14521,7 +16793,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14554,7 +16826,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14587,7 +16859,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14620,7 +16892,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14653,7 +16925,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14686,7 +16958,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14719,7 +16991,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14752,7 +17024,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14785,7 +17057,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14818,7 +17090,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14851,7 +17123,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14884,7 +17156,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14917,7 +17189,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14950,7 +17222,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14983,7 +17255,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15016,7 +17288,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15049,7 +17321,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15082,7 +17354,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15115,7 +17387,7 @@
         <v>26372682.4356815</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15280,7 +17552,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15313,7 +17585,7 @@
         <v>27452462.6636815</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15379,7 +17651,7 @@
         <v>28763605.1958815</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15445,7 +17717,7 @@
         <v>28911574.4835815</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15478,7 +17750,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15511,7 +17783,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15544,7 +17816,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15577,7 +17849,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15643,7 +17915,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15676,7 +17948,7 @@
         <v>30012892.43427628</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15709,7 +17981,7 @@
         <v>28750897.20997628</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15742,7 +18014,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15775,7 +18047,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15808,7 +18080,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15841,7 +18113,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15874,7 +18146,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15907,7 +18179,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15940,7 +18212,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15973,7 +18245,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16006,7 +18278,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16039,7 +18311,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16072,7 +18344,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16171,7 +18443,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16204,7 +18476,7 @@
         <v>29069052.60617628</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16237,7 +18509,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16303,7 +18575,7 @@
         <v>28734495.22303782</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16435,7 +18707,7 @@
         <v>28709834.39086688</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16534,7 +18806,7 @@
         <v>27835635.83806688</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16633,7 +18905,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16666,7 +18938,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16699,7 +18971,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16732,7 +19004,7 @@
         <v>27977502.34126687</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16765,7 +19037,7 @@
         <v>27977502.34126687</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16798,7 +19070,7 @@
         <v>27481429.71036687</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16831,7 +19103,7 @@
         <v>27481429.71036687</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16864,7 +19136,7 @@
         <v>27725483.85186687</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16897,7 +19169,7 @@
         <v>27725483.85186687</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17029,7 +19301,7 @@
         <v>27834228.46746688</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17062,7 +19334,7 @@
         <v>27457298.60026688</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17293,7 +19565,7 @@
         <v>27010387.43616688</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17359,7 +19631,7 @@
         <v>27010387.43616688</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17425,7 +19697,7 @@
         <v>27010387.43616688</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17491,7 +19763,7 @@
         <v>27504776.21486688</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17524,7 +19796,7 @@
         <v>27504776.21486688</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17557,7 +19829,7 @@
         <v>27898882.21486688</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17590,7 +19862,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17623,7 +19895,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17656,7 +19928,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17689,7 +19961,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17722,7 +19994,7 @@
         <v>27806616.72516688</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17755,7 +20027,7 @@
         <v>27370342.70666688</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17788,7 +20060,7 @@
         <v>27370387.94936688</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17821,7 +20093,7 @@
         <v>27370387.94936688</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17854,7 +20126,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17887,7 +20159,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17920,7 +20192,7 @@
         <v>26583335.93256688</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17953,7 +20225,7 @@
         <v>26583335.93256688</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18151,7 +20423,7 @@
         <v>24678784.71706688</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18184,7 +20456,7 @@
         <v>24678784.71706688</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18217,7 +20489,7 @@
         <v>24573651.34416687</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18250,7 +20522,7 @@
         <v>24985865.52676687</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18283,7 +20555,7 @@
         <v>24985865.52676687</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18349,7 +20621,7 @@
         <v>24933643.109442</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18382,7 +20654,7 @@
         <v>25035499.10446687</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18415,7 +20687,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18448,7 +20720,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18481,7 +20753,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18514,7 +20786,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18547,7 +20819,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18580,7 +20852,7 @@
         <v>24701135.21146687</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18613,7 +20885,7 @@
         <v>23926087.82986687</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18646,7 +20918,7 @@
         <v>24760829.27746687</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18679,7 +20951,7 @@
         <v>24760829.27746687</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18712,7 +20984,7 @@
         <v>24252078.31366687</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18745,7 +21017,7 @@
         <v>24252078.31366687</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18844,7 +21116,7 @@
         <v>22606917.01986687</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18877,7 +21149,7 @@
         <v>23194973.20846687</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18943,7 +21215,7 @@
         <v>23194973.20846687</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20659,7 +22931,7 @@
         <v>22084929.33638667</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21319,7 +23591,7 @@
         <v>22646552.73128767</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21352,7 +23624,7 @@
         <v>22646552.73128767</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21385,7 +23657,7 @@
         <v>22646552.73128767</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21418,7 +23690,7 @@
         <v>22646552.73128767</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21451,7 +23723,7 @@
         <v>22646885.73128767</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21484,7 +23756,7 @@
         <v>22646001.61948767</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21517,7 +23789,7 @@
         <v>22646001.61948767</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21550,7 +23822,7 @@
         <v>22646001.61948767</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21583,7 +23855,7 @@
         <v>22646001.61948767</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21616,7 +23888,7 @@
         <v>22646015.71948767</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21649,7 +23921,7 @@
         <v>22646015.71948767</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21682,7 +23954,7 @@
         <v>22646015.71948767</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21715,7 +23987,7 @@
         <v>22646015.71948767</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21748,7 +24020,7 @@
         <v>22646015.71948767</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21781,7 +24053,7 @@
         <v>22669561.89028767</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21814,7 +24086,7 @@
         <v>22669561.89028767</v>
       </c>
       <c r="H647" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21847,7 +24119,7 @@
         <v>22669561.89028767</v>
       </c>
       <c r="H648" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21880,7 +24152,7 @@
         <v>22669561.89028767</v>
       </c>
       <c r="H649" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21913,7 +24185,7 @@
         <v>22241667.86998767</v>
       </c>
       <c r="H650" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21946,7 +24218,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H651" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21979,7 +24251,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H652" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22012,7 +24284,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22045,7 +24317,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H654" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22078,7 +24350,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H655" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22111,7 +24383,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22144,7 +24416,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22177,7 +24449,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22210,7 +24482,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22243,7 +24515,7 @@
         <v>22242569.83508768</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22276,7 +24548,7 @@
         <v>22242400.78028768</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -22309,7 +24581,7 @@
         <v>22733880.70558767</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -22342,7 +24614,7 @@
         <v>22729677.37568767</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -22375,7 +24647,7 @@
         <v>22729677.37568767</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -22408,7 +24680,7 @@
         <v>22729677.37568767</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -22441,7 +24713,7 @@
         <v>22729677.37568767</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -22474,7 +24746,7 @@
         <v>22729707.37568767</v>
       </c>
       <c r="H667" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -22705,7 +24977,7 @@
         <v>23063542.04468767</v>
       </c>
       <c r="H674" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -22738,7 +25010,7 @@
         <v>23063542.04468767</v>
       </c>
       <c r="H675" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -22771,7 +25043,7 @@
         <v>23063542.04468767</v>
       </c>
       <c r="H676" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -22804,7 +25076,7 @@
         <v>23063542.04468767</v>
       </c>
       <c r="H677" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -22837,7 +25109,7 @@
         <v>22919355.80706391</v>
       </c>
       <c r="H678" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -22870,7 +25142,7 @@
         <v>22550763.60026392</v>
       </c>
       <c r="H679" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -22903,7 +25175,7 @@
         <v>22848782.84286392</v>
       </c>
       <c r="H680" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -24883,7 +27155,7 @@
         <v>23506459.78027799</v>
       </c>
       <c r="H740" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24916,7 +27188,7 @@
         <v>23506459.78027799</v>
       </c>
       <c r="H741" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24949,7 +27221,7 @@
         <v>23506459.78027799</v>
       </c>
       <c r="H742" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25015,7 +27287,7 @@
         <v>23683121.26717799</v>
       </c>
       <c r="H744" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -25048,7 +27320,7 @@
         <v>23683121.26717799</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25081,7 +27353,7 @@
         <v>23519726.21827799</v>
       </c>
       <c r="H746" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25114,7 +27386,7 @@
         <v>23520080.21827799</v>
       </c>
       <c r="H747" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25147,7 +27419,7 @@
         <v>23520080.21827799</v>
       </c>
       <c r="H748" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25180,7 +27452,7 @@
         <v>23520080.21827799</v>
       </c>
       <c r="H749" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25213,7 +27485,7 @@
         <v>23519121.37227799</v>
       </c>
       <c r="H750" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25246,7 +27518,7 @@
         <v>23616698.56577799</v>
       </c>
       <c r="H751" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25279,7 +27551,7 @@
         <v>23641574.18757799</v>
       </c>
       <c r="H752" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25312,7 +27584,7 @@
         <v>23639807.23757799</v>
       </c>
       <c r="H753" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -32517,6 +34789,6 @@
       <c r="M971" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest TRX.xlsx
+++ b/BackTest/2019-10-26 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>212738.3696486301</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -527,13 +523,9 @@
         <v>18.2</v>
       </c>
       <c r="J4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>18.2</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -568,7 +560,7 @@
         <v>18.2</v>
       </c>
       <c r="J5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -603,15 +595,17 @@
         <v>401067.7747486301</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -646,13 +640,9 @@
         <v>18.2</v>
       </c>
       <c r="J7" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>18.2</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,13 +671,11 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -730,7 +718,11 @@
       <c r="J9" t="n">
         <v>18.2</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -767,11 +759,7 @@
       <c r="J10" t="n">
         <v>18.2</v>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -849,7 +837,11 @@
       <c r="J12" t="n">
         <v>18.2</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -886,11 +878,7 @@
       <c r="J13" t="n">
         <v>18.2</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -968,7 +956,11 @@
       <c r="J15" t="n">
         <v>18.2</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1003,13 +995,9 @@
         <v>18.1</v>
       </c>
       <c r="J16" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>18.1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1038,15 +1026,17 @@
         <v>423294.4478486301</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J17" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1077,17 +1067,15 @@
         <v>419277.6570486301</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1124,13 +1112,9 @@
         <v>18.1</v>
       </c>
       <c r="J19" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>18.1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1163,11 +1147,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1198,17 +1182,15 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>18.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1239,19 +1221,11 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1280,19 +1254,11 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1324,14 +1290,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1360,19 +1320,11 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1404,14 +1356,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1389,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1482,14 +1422,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1521,14 +1455,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1560,14 +1488,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1599,14 +1521,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1638,14 +1554,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1677,14 +1587,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1716,14 +1620,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1755,14 +1653,8 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1794,14 +1686,8 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1833,14 +1719,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1872,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1911,14 +1785,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1950,14 +1818,8 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1989,14 +1851,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2028,14 +1884,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2067,14 +1917,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2106,14 +1950,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2145,14 +1983,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2184,14 +2016,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2223,14 +2049,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2082,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2115,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2340,14 +2148,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2181,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2418,14 +2214,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2247,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2280,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2313,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2346,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2379,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2412,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2445,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2478,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2766,17 +2508,11 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2805,17 +2541,11 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2577,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2883,17 +2607,11 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2925,14 +2643,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2676,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3000,17 +2706,11 @@
         <v>8093894.86596311</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3042,14 +2742,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3081,14 +2775,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3120,14 +2808,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3159,14 +2841,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3198,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3276,14 +2940,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3315,14 +2973,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3354,14 +3006,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3393,14 +3039,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3432,14 +3072,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3471,14 +3105,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3510,14 +3138,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3549,14 +3171,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3588,14 +3204,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3627,14 +3237,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3666,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3705,14 +3303,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3744,14 +3336,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3783,14 +3369,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3822,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3501,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3534,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4017,14 +3567,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3600,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4173,14 +3699,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4212,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4290,14 +3798,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4329,14 +3831,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4368,14 +3864,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4407,14 +3897,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4446,14 +3930,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4485,14 +3963,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4524,14 +3996,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4563,14 +4029,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4602,14 +4062,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4638,17 +4092,11 @@
         <v>17624755.72126311</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4128,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4719,14 +4161,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4194,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4227,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4836,14 +4260,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4875,14 +4293,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4326,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4359,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4392,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4425,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4458,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4491,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5148,14 +4524,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5187,14 +4557,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +4590,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +4623,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +4656,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5343,14 +4689,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +4722,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +4755,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5460,14 +4788,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +4821,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5538,14 +4854,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +4887,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +4920,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +4953,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5694,14 +4986,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5733,14 +5019,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5772,14 +5052,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5811,14 +5085,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5118,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5889,14 +5151,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5928,14 +5184,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5967,14 +5217,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6006,14 +5250,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6045,14 +5283,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6084,14 +5316,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6123,14 +5349,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5382,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6201,14 +5415,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6240,14 +5448,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6279,14 +5481,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6318,14 +5514,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6357,14 +5547,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6396,14 +5580,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6435,14 +5613,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6474,14 +5646,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6513,14 +5679,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6552,14 +5712,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6591,14 +5745,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6630,14 +5778,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6669,14 +5811,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6708,14 +5844,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6747,14 +5877,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6786,14 +5910,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6825,14 +5943,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6864,14 +5976,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6903,14 +6009,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6942,14 +6042,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6981,14 +6075,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7020,14 +6108,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7059,14 +6141,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7098,14 +6174,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7137,14 +6207,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7176,14 +6240,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7215,14 +6273,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7254,14 +6306,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7293,14 +6339,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7332,14 +6372,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7371,14 +6405,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7410,14 +6438,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7449,14 +6471,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7488,14 +6504,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7527,14 +6537,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7566,14 +6570,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7605,14 +6603,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7644,14 +6636,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7683,14 +6669,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7722,14 +6702,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7761,14 +6735,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7800,14 +6768,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7839,14 +6801,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7878,14 +6834,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7917,14 +6867,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7956,14 +6900,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7995,14 +6933,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8034,14 +6966,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8073,14 +6999,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8112,14 +7032,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8151,14 +7065,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8190,14 +7098,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8229,14 +7131,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8268,14 +7164,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8307,14 +7197,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8346,14 +7230,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8385,14 +7263,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8424,14 +7296,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8463,14 +7329,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8502,14 +7362,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8541,14 +7395,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8580,14 +7428,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8619,14 +7461,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8658,14 +7494,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8697,14 +7527,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8736,14 +7560,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8775,14 +7593,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8814,14 +7626,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8853,14 +7659,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8892,14 +7692,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8931,14 +7725,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8970,14 +7758,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9009,14 +7791,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9048,14 +7824,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9084,17 +7854,11 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9123,17 +7887,11 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9162,17 +7920,11 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9201,17 +7953,11 @@
         <v>22397498.93918541</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9240,17 +7986,11 @@
         <v>23333836.54088541</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9279,17 +8019,11 @@
         <v>22468845.70978542</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9318,17 +8052,11 @@
         <v>18738356.94378542</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9357,17 +8085,11 @@
         <v>19680881.63198542</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9396,17 +8118,11 @@
         <v>20746442.87178542</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9435,17 +8151,11 @@
         <v>22100973.34838542</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9474,17 +8184,11 @@
         <v>21032825.60388542</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9513,17 +8217,11 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9552,17 +8250,11 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9591,17 +8283,11 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9630,17 +8316,11 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9669,17 +8349,11 @@
         <v>20765487.70848542</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9711,14 +8385,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9750,14 +8418,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9789,14 +8451,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9828,14 +8484,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9867,14 +8517,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9903,17 +8547,11 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9942,17 +8580,11 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9981,17 +8613,11 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10020,17 +8646,11 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10059,17 +8679,11 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10098,17 +8712,11 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10137,17 +8745,11 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10176,17 +8778,11 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10215,17 +8811,11 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10254,17 +8844,11 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10293,17 +8877,11 @@
         <v>20900509.44008542</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10332,17 +8910,11 @@
         <v>20899688.29938542</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10371,17 +8943,11 @@
         <v>20899938.29938542</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10410,17 +8976,11 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10449,17 +9009,11 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10488,17 +9042,11 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10530,14 +9078,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10569,14 +9111,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10608,14 +9144,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10647,14 +9177,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10686,14 +9210,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10725,14 +9243,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10764,14 +9276,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10803,14 +9309,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10842,14 +9342,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10881,14 +9375,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10920,14 +9408,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10959,14 +9441,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10998,14 +9474,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11037,14 +9507,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11076,14 +9540,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11115,14 +9573,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11154,14 +9606,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11193,14 +9639,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11232,14 +9672,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11271,14 +9705,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11310,14 +9738,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11349,14 +9771,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11388,14 +9804,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11427,14 +9837,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11466,14 +9870,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11505,14 +9903,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11544,14 +9936,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11583,14 +9969,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11622,14 +10002,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11661,14 +10035,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11700,14 +10068,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11739,14 +10101,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11778,14 +10134,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11817,14 +10167,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11856,14 +10200,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11895,14 +10233,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11934,14 +10266,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11973,14 +10299,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12012,14 +10332,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12051,14 +10365,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12090,14 +10398,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12129,14 +10431,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12168,14 +10464,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12207,14 +10497,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12246,14 +10530,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12285,14 +10563,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12324,14 +10596,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12363,14 +10629,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12402,14 +10662,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12441,14 +10695,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12480,14 +10728,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12519,14 +10761,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12558,14 +10794,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12597,14 +10827,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12636,14 +10860,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12675,14 +10893,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12714,14 +10926,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12753,14 +10959,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12792,14 +10992,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12831,14 +11025,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12870,14 +11058,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12909,14 +11091,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12948,14 +11124,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12987,14 +11157,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13026,14 +11190,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13065,14 +11223,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13104,14 +11256,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13143,14 +11289,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13182,14 +11322,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13221,14 +11355,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13260,14 +11388,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13299,14 +11421,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13338,14 +11454,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13377,14 +11487,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13416,14 +11520,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13455,14 +11553,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13494,14 +11586,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13533,14 +11619,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13572,14 +11652,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13611,14 +11685,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13650,14 +11718,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13689,14 +11751,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13728,14 +11784,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13767,14 +11817,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13806,14 +11850,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13845,14 +11883,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13884,14 +11916,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13923,14 +11949,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13962,14 +11982,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14001,14 +12015,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14040,14 +12048,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14079,14 +12081,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14118,14 +12114,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14157,14 +12147,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14196,14 +12180,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14235,14 +12213,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14274,14 +12246,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14313,14 +12279,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14352,14 +12312,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14391,14 +12345,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14430,14 +12378,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14469,14 +12411,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14508,14 +12444,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14547,14 +12477,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14586,14 +12510,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14625,14 +12543,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14664,14 +12576,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14703,14 +12609,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14742,14 +12642,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14781,14 +12675,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14820,14 +12708,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14859,14 +12741,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14898,14 +12774,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14937,14 +12807,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14976,14 +12840,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15015,14 +12873,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15054,14 +12906,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15093,14 +12939,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15132,14 +12972,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15171,14 +13005,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15210,14 +13038,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15249,14 +13071,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15288,14 +13104,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15327,14 +13137,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15366,14 +13170,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15405,14 +13203,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15444,14 +13236,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15483,14 +13269,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15522,14 +13302,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15561,14 +13335,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15597,23 +13365,15 @@
         <v>22856953.83028541</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
-        <v>1.10489010989011</v>
-      </c>
-      <c r="M390" t="n">
-        <v>1.011049723756906</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -15671,7 +13431,7 @@
         <v>22856953.83028541</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15704,7 +13464,7 @@
         <v>22617428.80398541</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15803,7 +13563,7 @@
         <v>22620117.00918541</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15902,7 +13662,7 @@
         <v>23792177.23448541</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15935,7 +13695,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15968,7 +13728,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16067,7 +13827,7 @@
         <v>23884795.99908542</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16100,7 +13860,7 @@
         <v>23770627.60648542</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16133,7 +13893,7 @@
         <v>24001509.63988541</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16166,7 +13926,7 @@
         <v>23944329.50458346</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16199,7 +13959,7 @@
         <v>24651836.2294815</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16232,7 +13992,7 @@
         <v>24651836.2294815</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16265,7 +14025,7 @@
         <v>25467510.2185815</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16298,7 +14058,7 @@
         <v>25467510.2185815</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16430,7 +14190,7 @@
         <v>27703057.8466815</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16463,7 +14223,7 @@
         <v>28912615.5342815</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16496,7 +14256,7 @@
         <v>27358192.1646815</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16529,7 +14289,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16562,7 +14322,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16595,7 +14355,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16628,7 +14388,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16661,7 +14421,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16694,7 +14454,7 @@
         <v>26719672.6680815</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16727,7 +14487,7 @@
         <v>26883186.1137815</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16760,7 +14520,7 @@
         <v>26207466.0584815</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16793,7 +14553,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16826,7 +14586,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16859,7 +14619,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16892,7 +14652,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16925,7 +14685,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16958,7 +14718,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16991,7 +14751,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -17024,7 +14784,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -17057,7 +14817,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -17090,7 +14850,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -17123,7 +14883,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17156,7 +14916,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17189,7 +14949,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17222,7 +14982,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17255,7 +15015,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17288,7 +15048,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17321,7 +15081,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17354,7 +15114,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17387,7 +15147,7 @@
         <v>26372682.4356815</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17651,7 +15411,7 @@
         <v>28763605.1958815</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17717,7 +15477,7 @@
         <v>28911574.4835815</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17750,7 +15510,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17783,7 +15543,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17816,7 +15576,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17849,7 +15609,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17915,7 +15675,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17981,7 +15741,7 @@
         <v>28750897.20997628</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18014,7 +15774,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18047,7 +15807,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18080,7 +15840,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -18113,7 +15873,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18146,7 +15906,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18179,7 +15939,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18212,7 +15972,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18245,7 +16005,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18278,7 +16038,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18344,7 +16104,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18476,7 +16236,7 @@
         <v>29069052.60617628</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18509,7 +16269,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18575,7 +16335,7 @@
         <v>28734495.22303782</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18707,7 +16467,7 @@
         <v>28709834.39086688</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18806,7 +16566,7 @@
         <v>27835635.83806688</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18905,7 +16665,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18938,7 +16698,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18971,7 +16731,7 @@
         <v>27863410.92886687</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -19004,7 +16764,7 @@
         <v>27977502.34126687</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -19037,7 +16797,7 @@
         <v>27977502.34126687</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -19070,7 +16830,7 @@
         <v>27481429.71036687</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -19103,7 +16863,7 @@
         <v>27481429.71036687</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19136,7 +16896,7 @@
         <v>27725483.85186687</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19169,7 +16929,7 @@
         <v>27725483.85186687</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19631,7 +17391,7 @@
         <v>27010387.43616688</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19697,7 +17457,7 @@
         <v>27010387.43616688</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19796,7 +17556,7 @@
         <v>27504776.21486688</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19829,7 +17589,7 @@
         <v>27898882.21486688</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19862,7 +17622,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19895,7 +17655,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19928,7 +17688,7 @@
         <v>27762117.38866688</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19994,7 +17754,7 @@
         <v>27806616.72516688</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -20027,7 +17787,7 @@
         <v>27370342.70666688</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -20060,7 +17820,7 @@
         <v>27370387.94936688</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -20093,7 +17853,7 @@
         <v>27370387.94936688</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -20126,7 +17886,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20159,7 +17919,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20192,7 +17952,7 @@
         <v>26583335.93256688</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20225,7 +17985,7 @@
         <v>26583335.93256688</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20423,7 +18183,7 @@
         <v>24678784.71706688</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20456,7 +18216,7 @@
         <v>24678784.71706688</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20489,7 +18249,7 @@
         <v>24573651.34416687</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20522,7 +18282,7 @@
         <v>24985865.52676687</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20555,7 +18315,7 @@
         <v>24985865.52676687</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20621,7 +18381,7 @@
         <v>24933643.109442</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20654,7 +18414,7 @@
         <v>25035499.10446687</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20687,7 +18447,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20720,7 +18480,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20753,7 +18513,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20786,7 +18546,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20819,7 +18579,7 @@
         <v>24839184.94686687</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20852,7 +18612,7 @@
         <v>24701135.21146687</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20885,7 +18645,7 @@
         <v>23926087.82986687</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20918,7 +18678,7 @@
         <v>24760829.27746687</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20951,7 +18711,7 @@
         <v>24760829.27746687</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20984,7 +18744,7 @@
         <v>24252078.31366687</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21017,7 +18777,7 @@
         <v>24252078.31366687</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21149,7 +18909,7 @@
         <v>23194973.20846687</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -34789,6 +32549,6 @@
       <c r="M971" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest TRX.xlsx
+++ b/BackTest/2019-10-26 BackTest TRX.xlsx
@@ -517,14 +517,10 @@
         <v>12738.36964863006</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
@@ -554,19 +550,11 @@
         <v>418143.7247486301</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -598,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -671,9 +653,11 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J8" t="n">
         <v>18.2</v>
       </c>
@@ -751,14 +735,10 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -788,19 +768,11 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -829,19 +801,11 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -870,14 +834,10 @@
         <v>335024.2116486301</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>18.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -915,11 +875,7 @@
       <c r="J14" t="n">
         <v>18.2</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -995,9 +951,13 @@
         <v>18.1</v>
       </c>
       <c r="J16" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1032,11 +992,11 @@
         <v>18.2</v>
       </c>
       <c r="J17" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -1067,15 +1027,17 @@
         <v>419277.6570486301</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.2</v>
+      </c>
       <c r="J18" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L18" t="n">
@@ -1112,9 +1074,13 @@
         <v>18.1</v>
       </c>
       <c r="J19" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+        <v>18.2</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1143,15 +1109,17 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J20" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L20" t="n">
@@ -1182,15 +1150,17 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.3</v>
+      </c>
       <c r="J21" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L21" t="n">
@@ -1221,11 +1191,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1254,11 +1232,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1287,11 +1273,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1320,11 +1314,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1355,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1396,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J27" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1419,11 +1437,19 @@
         <v>419287.6570486301</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1455,8 +1481,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1488,8 +1520,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1521,8 +1559,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1554,8 +1598,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1587,8 +1637,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1620,8 +1676,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1653,8 +1715,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1686,8 +1754,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1719,8 +1793,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1752,8 +1832,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1785,8 +1871,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1818,8 +1910,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1851,8 +1949,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1884,8 +1988,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1917,8 +2027,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1950,8 +2066,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1983,8 +2105,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2016,8 +2144,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2049,8 +2183,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2082,8 +2222,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2115,8 +2261,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2148,8 +2300,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2181,8 +2339,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2214,8 +2378,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2247,8 +2417,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2280,8 +2456,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2313,8 +2495,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2346,8 +2534,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2379,8 +2573,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2412,8 +2612,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2445,8 +2651,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2478,8 +2690,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2508,11 +2726,17 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2541,11 +2765,17 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2577,8 +2807,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2607,11 +2843,17 @@
         <v>8866588.618063109</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2643,8 +2885,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2676,8 +2924,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2706,11 +2960,17 @@
         <v>8093894.86596311</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2742,8 +3002,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2775,8 +3041,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2808,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2841,8 +3119,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2874,8 +3158,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2907,8 +3197,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2940,8 +3236,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2973,8 +3275,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3006,8 +3314,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3039,8 +3353,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3072,8 +3392,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3105,8 +3431,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3138,8 +3470,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3171,8 +3509,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3204,8 +3548,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3237,8 +3587,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3270,8 +3626,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3303,8 +3665,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3336,8 +3704,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3369,8 +3743,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3402,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3435,8 +3821,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3468,8 +3860,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3501,8 +3899,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3534,8 +3938,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3567,8 +3977,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3600,8 +4016,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3633,8 +4055,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3666,8 +4094,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3699,8 +4133,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3732,8 +4172,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3765,8 +4211,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3798,8 +4250,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3831,8 +4289,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3864,8 +4328,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3897,8 +4367,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3930,8 +4406,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3963,8 +4445,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3996,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4029,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4062,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4092,11 +4598,17 @@
         <v>17624755.72126311</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4128,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4161,8 +4679,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4194,8 +4718,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4227,8 +4757,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4260,8 +4796,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4293,8 +4835,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4326,8 +4874,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4359,8 +4913,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4392,8 +4952,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4425,8 +4991,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4458,8 +5030,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4491,8 +5069,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4524,8 +5108,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4557,8 +5147,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4590,8 +5186,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4623,8 +5225,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4656,8 +5264,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4689,8 +5303,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4722,8 +5342,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4755,8 +5381,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4788,8 +5420,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4821,8 +5459,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4854,8 +5498,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4887,8 +5537,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4920,8 +5576,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4953,8 +5615,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4986,8 +5654,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5019,8 +5693,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5052,8 +5732,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5085,8 +5771,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5118,8 +5810,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5151,8 +5849,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5184,8 +5888,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5217,8 +5927,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5250,8 +5966,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5283,8 +6005,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5316,8 +6044,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5349,8 +6083,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5382,8 +6122,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5415,8 +6161,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5448,8 +6200,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5481,8 +6239,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5514,8 +6278,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5547,8 +6317,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5580,8 +6356,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5613,8 +6395,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5646,8 +6434,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5679,8 +6473,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5712,8 +6512,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5745,8 +6551,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5778,8 +6590,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +6629,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5844,8 +6668,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5877,8 +6707,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5910,8 +6746,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5943,8 +6785,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5976,8 +6824,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6009,8 +6863,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6042,8 +6902,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6075,8 +6941,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6108,8 +6980,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6141,8 +7019,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6174,8 +7058,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6207,8 +7097,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6240,8 +7136,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6273,8 +7175,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6306,8 +7214,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6339,8 +7253,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6372,8 +7292,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6405,8 +7331,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6438,8 +7370,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6471,8 +7409,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6504,8 +7448,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6537,8 +7487,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6570,8 +7526,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6603,8 +7565,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6636,8 +7604,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6669,8 +7643,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6702,8 +7682,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6735,8 +7721,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6768,8 +7760,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6801,8 +7799,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6834,8 +7838,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6867,8 +7877,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6900,8 +7916,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6933,8 +7955,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6966,8 +7994,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6999,8 +8033,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7032,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7065,8 +8111,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7098,8 +8150,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7131,8 +8189,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7164,8 +8228,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7197,8 +8267,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7230,8 +8306,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7263,8 +8345,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7296,8 +8384,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7329,8 +8423,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7362,8 +8462,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7395,8 +8501,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7428,8 +8540,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7461,8 +8579,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7494,8 +8618,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7527,8 +8657,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7560,8 +8696,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7593,8 +8735,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7626,8 +8774,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7659,8 +8813,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7692,8 +8852,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7725,8 +8891,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7758,8 +8930,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7791,8 +8969,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7824,8 +9008,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7854,11 +9044,17 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7887,11 +9083,17 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +9122,17 @@
         <v>21165182.38348541</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7953,11 +9161,17 @@
         <v>22397498.93918541</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +9200,17 @@
         <v>23333836.54088541</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8019,11 +9239,17 @@
         <v>22468845.70978542</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8052,11 +9278,17 @@
         <v>18738356.94378542</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8085,11 +9317,17 @@
         <v>19680881.63198542</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8118,11 +9356,17 @@
         <v>20746442.87178542</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8151,11 +9395,17 @@
         <v>22100973.34838542</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8184,11 +9434,17 @@
         <v>21032825.60388542</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8217,11 +9473,17 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8250,11 +9512,17 @@
         <v>20372873.55838542</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8283,11 +9551,17 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8316,11 +9590,17 @@
         <v>21123974.72028542</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8349,11 +9629,17 @@
         <v>20765487.70848542</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8385,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8418,8 +9710,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8451,8 +9749,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8484,8 +9788,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8517,8 +9827,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8547,11 +9863,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8580,11 +9902,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8613,11 +9941,17 @@
         <v>20758292.69438542</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +9980,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +10019,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8712,11 +10058,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8745,11 +10097,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8778,11 +10136,17 @@
         <v>20896141.51708542</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8811,11 +10175,17 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +10214,17 @@
         <v>20910509.44008542</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8877,11 +10253,17 @@
         <v>20900509.44008542</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8910,11 +10292,17 @@
         <v>20899688.29938542</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8943,11 +10331,17 @@
         <v>20899938.29938542</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8976,11 +10370,17 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9009,11 +10409,17 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9042,11 +10448,17 @@
         <v>20867230.20068542</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9078,8 +10490,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9111,8 +10529,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9144,8 +10568,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9177,8 +10607,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9210,8 +10646,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9243,8 +10685,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9276,8 +10724,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9309,8 +10763,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9342,8 +10802,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9375,8 +10841,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9408,8 +10880,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9441,8 +10919,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9474,8 +10958,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9507,8 +10997,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9540,8 +11036,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9573,8 +11075,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9606,8 +11114,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9639,8 +11153,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9672,8 +11192,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9705,8 +11231,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9738,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9771,8 +11309,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9804,8 +11348,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9837,8 +11387,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9870,8 +11426,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9903,8 +11465,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9936,8 +11504,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9969,8 +11543,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10002,8 +11582,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10035,8 +11621,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10068,8 +11660,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10101,8 +11699,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10134,8 +11738,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10167,8 +11777,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10200,8 +11816,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10233,8 +11855,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10266,8 +11894,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10299,8 +11933,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10332,8 +11972,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10365,8 +12011,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10398,8 +12050,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10431,8 +12089,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10464,8 +12128,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10497,8 +12167,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10530,8 +12206,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10563,8 +12245,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10596,8 +12284,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10629,8 +12323,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10662,8 +12362,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10695,8 +12401,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10728,8 +12440,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10761,8 +12479,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10794,8 +12518,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10827,8 +12557,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10860,8 +12596,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10893,8 +12635,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10926,8 +12674,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10959,8 +12713,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -10992,8 +12752,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11025,8 +12791,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11058,8 +12830,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11091,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11124,8 +12908,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11157,8 +12947,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11190,8 +12986,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11223,8 +13025,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11256,8 +13064,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11289,8 +13103,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11322,8 +13142,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11355,8 +13181,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11388,8 +13220,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11421,8 +13259,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11454,8 +13298,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11487,8 +13337,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11520,8 +13376,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11553,8 +13415,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11586,8 +13454,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11619,8 +13493,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11652,8 +13532,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11685,8 +13571,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11718,8 +13610,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11751,8 +13649,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11784,8 +13688,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11817,8 +13727,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11850,8 +13766,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11883,8 +13805,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11916,8 +13844,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11949,8 +13883,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -11982,8 +13922,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12015,8 +13961,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12048,8 +14000,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12081,8 +14039,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12114,8 +14078,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12147,8 +14117,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12180,8 +14156,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12213,8 +14195,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12246,8 +14234,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12279,8 +14273,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12312,8 +14312,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12345,8 +14351,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12378,8 +14390,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12411,8 +14429,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12444,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12477,8 +14507,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12510,8 +14546,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12543,8 +14585,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12576,8 +14624,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12609,8 +14663,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12642,8 +14702,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12675,8 +14741,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12708,8 +14780,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12741,8 +14819,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12774,8 +14858,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12807,8 +14897,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12840,8 +14936,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12873,8 +14975,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12906,8 +15014,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12939,8 +15053,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12972,8 +15092,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13005,8 +15131,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13038,8 +15170,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13071,8 +15209,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13104,8 +15248,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13137,8 +15287,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13170,8 +15326,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13203,8 +15365,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13236,8 +15404,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13269,8 +15443,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13302,8 +15482,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13335,8 +15521,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13368,8 +15560,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13401,8 +15599,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13434,8 +15638,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13467,8 +15677,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13500,8 +15716,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13533,8 +15755,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13566,8 +15794,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13599,8 +15833,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13632,8 +15872,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13665,8 +15911,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13698,8 +15950,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13731,8 +15989,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13764,8 +16028,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13797,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13830,8 +16106,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13863,8 +16145,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13896,8 +16184,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13929,8 +16223,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13962,8 +16262,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13995,8 +16301,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14028,8 +16340,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14061,8 +16379,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14094,8 +16418,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14124,15 +16454,23 @@
         <v>25663062.8348815</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
+        <v>1.132362637362637</v>
+      </c>
+      <c r="M413" t="n">
+        <v>1.011049723756906</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -14157,7 +16495,7 @@
         <v>25663062.8348815</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14190,7 +16528,7 @@
         <v>27703057.8466815</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14223,7 +16561,7 @@
         <v>28912615.5342815</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14256,7 +16594,7 @@
         <v>27358192.1646815</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14289,7 +16627,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14322,7 +16660,7 @@
         <v>26390159.5780815</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14355,7 +16693,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14388,7 +16726,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14421,7 +16759,7 @@
         <v>26724772.5910815</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14454,7 +16792,7 @@
         <v>26719672.6680815</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14487,7 +16825,7 @@
         <v>26883186.1137815</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14520,7 +16858,7 @@
         <v>26207466.0584815</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14553,7 +16891,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14586,7 +16924,7 @@
         <v>26665767.3765815</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14619,7 +16957,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14652,7 +16990,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14685,7 +17023,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14718,7 +17056,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14751,7 +17089,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14784,7 +17122,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14817,7 +17155,7 @@
         <v>26961226.5990815</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14850,7 +17188,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14883,7 +17221,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14916,7 +17254,7 @@
         <v>26731677.9515815</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14949,7 +17287,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14982,7 +17320,7 @@
         <v>26788252.7975815</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15015,7 +17353,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15048,7 +17386,7 @@
         <v>26071544.0977815</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15081,7 +17419,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15114,7 +17452,7 @@
         <v>26370994.9356815</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15147,7 +17485,7 @@
         <v>26372682.4356815</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15180,7 +17518,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15213,7 +17551,7 @@
         <v>26820210.8252815</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15246,7 +17584,7 @@
         <v>26569919.1919815</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15279,7 +17617,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15312,7 +17650,7 @@
         <v>26321860.6091815</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15345,7 +17683,7 @@
         <v>27452462.6636815</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15378,7 +17716,7 @@
         <v>27641289.5823815</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15411,7 +17749,7 @@
         <v>28763605.1958815</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15444,7 +17782,7 @@
         <v>28701099.4192815</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15477,7 +17815,7 @@
         <v>28911574.4835815</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15510,7 +17848,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15543,7 +17881,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15576,7 +17914,7 @@
         <v>28900961.1000815</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15609,7 +17947,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15642,7 +17980,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15675,7 +18013,7 @@
         <v>29418623.3038815</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15708,7 +18046,7 @@
         <v>30012892.43427628</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15741,7 +18079,7 @@
         <v>28750897.20997628</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15774,7 +18112,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15807,7 +18145,7 @@
         <v>29699631.61027628</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15840,7 +18178,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15873,7 +18211,7 @@
         <v>29633118.99097628</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15906,7 +18244,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15939,7 +18277,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15972,7 +18310,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16005,7 +18343,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16038,7 +18376,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16071,7 +18409,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16104,7 +18442,7 @@
         <v>30715824.09987628</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16137,7 +18475,7 @@
         <v>31000514.65517628</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16170,7 +18508,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16203,7 +18541,7 @@
         <v>28645716.01917628</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16236,7 +18574,7 @@
         <v>29069052.60617628</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16269,7 +18607,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16302,7 +18640,7 @@
         <v>27726511.13730705</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16335,7 +18673,7 @@
         <v>28734495.22303782</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16368,7 +18706,7 @@
         <v>27007853.01793782</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16401,7 +18739,7 @@
         <v>24408840.57833755</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16434,7 +18772,7 @@
         <v>25959354.57113259</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17193,7 +19531,7 @@
         <v>27721407.54626688</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17259,7 +19597,7 @@
         <v>27189643.96256688</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17886,7 +20224,7 @@
         <v>27035941.01936688</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
